--- a/csc445hw01Results.xlsx
+++ b/csc445hw01Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cedrichansen/Programs/csc445hw01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D699C2DF-2B90-9C48-8DA6-251907C71F04}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1356D57D-87DE-EC4E-BC17-24C8B70F559B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="21140" xr2:uid="{81977BFE-FBD4-7846-A2CF-47553195A17A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="14900" xr2:uid="{81977BFE-FBD4-7846-A2CF-47553195A17A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
   <si>
     <t>Trial</t>
   </si>
@@ -111,13 +111,10 @@
     <t>UDP Interaction</t>
   </si>
   <si>
-    <t>trial 3</t>
-  </si>
-  <si>
     <t>Note: everything was run 5 times and averaged</t>
   </si>
   <si>
-    <t>Andy Vadnais Laptop (off campus)</t>
+    <t>John Santos' Laptop (off campus)</t>
   </si>
 </sst>
 </file>
@@ -185,55 +182,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CFF44F2-52DD-2A4E-8BB5-7FE511E6C990}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="825500" y="8331200"/>
-          <a:ext cx="8267700" cy="5384800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -533,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{451A1E80-CBA9-F747-A72D-EF20C4DCD04D}">
-  <dimension ref="A4:H40"/>
+  <dimension ref="A4:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -585,7 +533,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
@@ -633,7 +581,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -709,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="F19">
-        <v>4.5933237</v>
+        <v>9.1866474</v>
       </c>
       <c r="H19">
-        <v>2.1095704999999998</v>
+        <v>4.2191409999999996</v>
       </c>
     </row>
     <row r="20" spans="5:8" x14ac:dyDescent="0.2">
@@ -720,10 +668,10 @@
         <v>17</v>
       </c>
       <c r="F20">
-        <v>5.7056417000000001</v>
+        <v>11.4112834</v>
       </c>
       <c r="H20">
-        <v>4.7080200000000003</v>
+        <v>9.4160400000000006</v>
       </c>
     </row>
     <row r="21" spans="5:8" x14ac:dyDescent="0.2">
@@ -731,10 +679,10 @@
         <v>18</v>
       </c>
       <c r="F21">
-        <v>7.1572046</v>
+        <v>14.3144092</v>
       </c>
       <c r="H21">
-        <v>6.1960397</v>
+        <v>12.3920794</v>
       </c>
     </row>
     <row r="22" spans="5:8" x14ac:dyDescent="0.2">
@@ -742,10 +690,10 @@
         <v>19</v>
       </c>
       <c r="F22">
-        <v>8.6912780000000005</v>
+        <v>17.382556000000001</v>
       </c>
       <c r="H22">
-        <v>6.7530913000000004</v>
+        <v>13.506182600000001</v>
       </c>
     </row>
     <row r="23" spans="5:8" x14ac:dyDescent="0.2">
@@ -753,10 +701,10 @@
         <v>20</v>
       </c>
       <c r="F23">
-        <v>9.5899920000000005</v>
+        <v>19.179984000000001</v>
       </c>
       <c r="H23">
-        <v>6.8946047000000004</v>
+        <v>13.789209400000001</v>
       </c>
     </row>
     <row r="25" spans="5:8" x14ac:dyDescent="0.2">
@@ -824,7 +772,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E33" s="3" t="s">
         <v>22</v>
       </c>
@@ -835,7 +783,7 @@
         <v>2381</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E34" t="s">
         <v>23</v>
       </c>
@@ -846,7 +794,7 @@
         <v>4718</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E35" t="s">
         <v>24</v>
       </c>
@@ -857,13 +805,7 @@
         <v>9684</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
-        <v>26</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/csc445hw01Results.xlsx
+++ b/csc445hw01Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cedrichansen/Programs/csc445hw01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1356D57D-87DE-EC4E-BC17-24C8B70F559B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3465C5A-F13F-A74D-B38D-B0A22D378B02}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="14900" xr2:uid="{81977BFE-FBD4-7846-A2CF-47553195A17A}"/>
   </bookViews>
@@ -184,6 +184,5609 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>TCP RTT</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Trial 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$6:$E$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1 byte</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64 bytes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024 bytes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$6:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>606</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4756</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9C92-CE4C-94CE-16A76A5C020D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Trial 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$6:$E$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1 byte</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64 bytes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024 bytes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$6:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9C92-CE4C-94CE-16A76A5C020D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Trial 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$6:$E$8</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1 byte</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64 bytes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024 bytes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$6:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3272</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3504</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9564</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9C92-CE4C-94CE-16A76A5C020D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1595303471"/>
+        <c:axId val="1595777631"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1595303471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1595777631"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1595777631"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>MICROSECONDS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1595303471"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>UDP RTT</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Trial 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$13:$E$15</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1 byte</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64 bytes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024 bytes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$13:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>175</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E988-0849-B9A1-5B78533E749A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Trial 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$13:$E$15</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1 byte</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64 bytes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024 bytes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$13:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E988-0849-B9A1-5B78533E749A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Trial 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$13:$E$15</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1 byte</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64 bytes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1024 bytes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$13:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2692</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2543</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2692</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E988-0849-B9A1-5B78533E749A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1597033759"/>
+        <c:axId val="1595633039"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1597033759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1595633039"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1595633039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>MICROSECONDS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1597033759"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>TCP Throughput</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Trial 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$19:$E$23</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1k bytes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16k bytes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64k bytes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256k bytes</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1M bytes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$19:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.1866474</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.4112834</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.3144092</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.382556000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.179984000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-74E3-2246-A897-01E659C83500}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Trial 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$19:$E$23</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1k bytes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16k bytes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64k bytes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256k bytes</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1M bytes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$19:$G$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-74E3-2246-A897-01E659C83500}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Trial 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$19:$E$23</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1k bytes</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16k bytes</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64k bytes</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>256k bytes</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1M bytes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$19:$H$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.2191409999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.4160400000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.3920794</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.506182600000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.789209400000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-74E3-2246-A897-01E659C83500}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1542078879"/>
+        <c:axId val="1596571487"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1542078879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1596571487"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1596571487"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Megabits/second</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1542078879"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>TCP Message</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> #/size speed</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Trial 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$27:$E$29</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1024-1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048-512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096-256</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$27:$F$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1253</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1713</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1935</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D75B-264B-936B-B9CDE4BA4C21}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Trial 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$27:$E$29</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1024-1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048-512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096-256</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$27:$G$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D75B-264B-936B-B9CDE4BA4C21}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Trial 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$27:$E$29</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1024-1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048-512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096-256</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$27:$H$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4697</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7737</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13876</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D75B-264B-936B-B9CDE4BA4C21}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1595387551"/>
+        <c:axId val="1597703983"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1595387551"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1597703983"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1597703983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Milliseconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1595387551"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>UDP Message</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> #/size speed</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Trial 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$33:$E$35</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1024-1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048-512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096-256</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$33:$F$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6E72-9F43-B8A9-E71F6F931623}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Trial 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$33:$E$35</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1024-1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048-512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096-256</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$33:$G$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6E72-9F43-B8A9-E71F6F931623}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Trial 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$33:$E$35</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1024-1024</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2048-512</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4096-256</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$33:$H$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2381</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4718</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9684</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6E72-9F43-B8A9-E71F6F931623}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1599918511"/>
+        <c:axId val="1599438799"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1599918511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1599438799"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1599438799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Milliseconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1599918511"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69DF5619-FB56-514C-8AD6-4AFB98F8132D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{568A8FFC-238C-2443-A76B-D7433B5A4A4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6477B98-D857-C84E-B2B5-27296140996B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F51F81D-D2C6-9E49-8286-5A26F176EF5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{078741F7-AAE3-FA45-99AE-7D5583E3D0A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -484,7 +6087,7 @@
   <dimension ref="A4:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -807,5 +6410,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>